--- a/database/seeders/enderecos/xlsx/cidades/seed_cidades_ms.xlsx
+++ b/database/seeders/enderecos/xlsx/cidades/seed_cidades_ms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11213"/>
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\OneDrive\Ambiente de Trabalho\estagio\planilhas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielmaia/Documents/Dev/sysgcm/database/seeders/enderecos/xlsx/cidades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7E200F-C3D7-4D32-A0DF-835712B30C84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD5E09B6-8EAB-C44E-A777-79EAFD58E2B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20740" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -509,16 +509,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -542,9 +536,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -850,20 +843,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:D85"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C1048574"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81:I105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>157</v>
       </c>
@@ -877,7 +870,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>5000203</v>
       </c>
@@ -888,7 +881,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>5000252</v>
       </c>
@@ -899,7 +892,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>5000609</v>
       </c>
@@ -910,7 +903,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5000708</v>
       </c>
@@ -921,7 +914,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5000807</v>
       </c>
@@ -932,7 +925,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5000856</v>
       </c>
@@ -943,7 +936,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5000906</v>
       </c>
@@ -954,7 +947,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5001003</v>
       </c>
@@ -965,7 +958,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>5001102</v>
       </c>
@@ -976,7 +969,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>5001243</v>
       </c>
@@ -987,7 +980,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>5001508</v>
       </c>
@@ -998,7 +991,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>5001904</v>
       </c>
@@ -1009,7 +1002,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>5002001</v>
       </c>
@@ -1020,7 +1013,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>5002100</v>
       </c>
@@ -1031,7 +1024,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>5002159</v>
       </c>
@@ -1042,7 +1035,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>5002209</v>
       </c>
@@ -1053,7 +1046,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>5002308</v>
       </c>
@@ -1064,7 +1057,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>5002407</v>
       </c>
@@ -1075,7 +1068,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>5002605</v>
       </c>
@@ -1086,7 +1079,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>5002704</v>
       </c>
@@ -1097,7 +1090,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>5002803</v>
       </c>
@@ -1108,7 +1101,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>5002902</v>
       </c>
@@ -1119,7 +1112,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>5002951</v>
       </c>
@@ -1130,7 +1123,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>5003108</v>
       </c>
@@ -1141,7 +1134,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>5003157</v>
       </c>
@@ -1152,7 +1145,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>5003207</v>
       </c>
@@ -1163,7 +1156,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>5003256</v>
       </c>
@@ -1174,7 +1167,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>5003306</v>
       </c>
@@ -1185,7 +1178,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>5003454</v>
       </c>
@@ -1196,7 +1189,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>5003488</v>
       </c>
@@ -1207,7 +1200,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>5003504</v>
       </c>
@@ -1218,7 +1211,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>5003702</v>
       </c>
@@ -1229,7 +1222,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>5003751</v>
       </c>
@@ -1240,7 +1233,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>5003801</v>
       </c>
@@ -1251,7 +1244,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>5003900</v>
       </c>
@@ -1262,7 +1255,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>5004007</v>
       </c>
@@ -1273,7 +1266,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>5004106</v>
       </c>
@@ -1284,7 +1277,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>5004304</v>
       </c>
@@ -1295,7 +1288,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>5004403</v>
       </c>
@@ -1306,7 +1299,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>5004502</v>
       </c>
@@ -1317,7 +1310,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>5004601</v>
       </c>
@@ -1328,7 +1321,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>5004700</v>
       </c>
@@ -1339,7 +1332,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>5004809</v>
       </c>
@@ -1350,7 +1343,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>5004908</v>
       </c>
@@ -1361,7 +1354,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>5005004</v>
       </c>
@@ -1372,7 +1365,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>5005103</v>
       </c>
@@ -1383,7 +1376,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>5005152</v>
       </c>
@@ -1394,7 +1387,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>5005202</v>
       </c>
@@ -1405,7 +1398,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>5005251</v>
       </c>
@@ -1416,7 +1409,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>5005400</v>
       </c>
@@ -1427,7 +1420,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>5005608</v>
       </c>
@@ -1438,7 +1431,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>5005681</v>
       </c>
@@ -1449,7 +1442,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>5005707</v>
       </c>
@@ -1460,7 +1453,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>5005806</v>
       </c>
@@ -1471,7 +1464,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>5006002</v>
       </c>
@@ -1482,7 +1475,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>5006200</v>
       </c>
@@ -1493,7 +1486,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>5006259</v>
       </c>
@@ -1504,7 +1497,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>5006275</v>
       </c>
@@ -1515,7 +1508,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>5006309</v>
       </c>
@@ -1526,7 +1519,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>5006358</v>
       </c>
@@ -1537,7 +1530,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>5006408</v>
       </c>
@@ -1548,7 +1541,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>5006606</v>
       </c>
@@ -1559,7 +1552,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>5006903</v>
       </c>
@@ -1570,7 +1563,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>5007109</v>
       </c>
@@ -1581,7 +1574,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>5007208</v>
       </c>
@@ -1592,7 +1585,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>5007307</v>
       </c>
@@ -1603,7 +1596,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>5007406</v>
       </c>
@@ -1614,7 +1607,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>5007505</v>
       </c>
@@ -1625,7 +1618,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>5007554</v>
       </c>
@@ -1636,7 +1629,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>5007695</v>
       </c>
@@ -1647,7 +1640,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>5007703</v>
       </c>
@@ -1658,7 +1651,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>5007802</v>
       </c>
@@ -1669,7 +1662,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>5007901</v>
       </c>
@@ -1680,7 +1673,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>5007935</v>
       </c>
@@ -1691,7 +1684,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>5007950</v>
       </c>
@@ -1702,7 +1695,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>5007976</v>
       </c>
@@ -1713,7 +1706,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>5008008</v>
       </c>
@@ -1724,7 +1717,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>5008305</v>
       </c>
@@ -1735,7 +1728,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>5008404</v>
       </c>
@@ -1745,9 +1738,6 @@
       <c r="C80" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
